--- a/PinMap.xlsx
+++ b/PinMap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Task\Documents\_ロボ部まわり\KiCad_works\F767ZI_Header\F767ZI_header\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A02395A-99C1-4984-BDA1-9C9C973FE4D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ACB7701-D8EB-4B8D-A19D-3BBA50F97CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8F0A3813-A775-46E7-AB31-6E2981862150}"/>
   </bookViews>
@@ -617,7 +617,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>

--- a/PinMap.xlsx
+++ b/PinMap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Task\Documents\_ロボ部まわり\KiCad_works\F767ZI_Header\F767ZI_header\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ACB7701-D8EB-4B8D-A19D-3BBA50F97CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F8C6B80-1434-4FA5-B544-9901F3EF0DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8F0A3813-A775-46E7-AB31-6E2981862150}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>CAN1_TD</t>
     <phoneticPr fontId="1"/>
@@ -95,14 +96,6 @@
   </si>
   <si>
     <t>PB_5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PF_0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PF_1</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -168,14 +161,6 @@
     <rPh sb="12" eb="13">
       <t>テキ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>I2C2_SCL</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>I2C2_SDA</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -203,26 +188,6 @@
     </rPh>
     <rPh sb="21" eb="22">
       <t>チガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MD用
-地磁気との混同に激しく注意</t>
-    <rPh sb="2" eb="3">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>チジキ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>コンドウ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ハゲ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>チュウイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -275,10 +240,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -614,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50B092CB-D2EE-4629-8555-E6A7EC5DEA9B}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -628,13 +593,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
         <v>20</v>
-      </c>
-      <c r="B1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -674,10 +639,10 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
@@ -685,72 +650,51 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="1"/>
+        <v>11</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C8:C9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/PinMap.xlsx
+++ b/PinMap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Task\Documents\_ロボ部まわり\KiCad_works\F767ZI_Header\F767ZI_header\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F8C6B80-1434-4FA5-B544-9901F3EF0DC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D8ADEBC-AA0D-408C-A78D-65B252596846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8F0A3813-A775-46E7-AB31-6E2981862150}"/>
   </bookViews>
@@ -582,7 +582,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>

--- a/PinMap.xlsx
+++ b/PinMap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Task\Documents\_ロボ部まわり\KiCad_works\F767ZI_Header\F767ZI_header\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D8ADEBC-AA0D-408C-A78D-65B252596846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E04CCD-549A-4AE5-AFE4-C793DA941418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8F0A3813-A775-46E7-AB31-6E2981862150}"/>
   </bookViews>
@@ -221,7 +221,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -229,21 +229,183 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -582,7 +744,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection sqref="A1:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -592,103 +754,109 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+      <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C2" s="6"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+      <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C3" s="6"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+      <c r="A4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+      <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="C5" s="6"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
+      <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="7" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+      <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="8"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
+      <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="C8" s="6"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
+      <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="C9" s="6"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
+      <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
+    <row r="11" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="11" t="s">
         <v>22</v>
       </c>
     </row>
@@ -698,5 +866,6 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/PinMap.xlsx
+++ b/PinMap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Task\Documents\_ロボ部まわり\KiCad_works\F767ZI_Header\F767ZI_header\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E04CCD-549A-4AE5-AFE4-C793DA941418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{885DC18F-39E8-431A-80DA-3ED5F5CBC857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8F0A3813-A775-46E7-AB31-6E2981862150}"/>
   </bookViews>
@@ -103,10 +103,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>PG_0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>PG_1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -189,6 +185,10 @@
     <rPh sb="21" eb="22">
       <t>チガ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PE_0</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -744,7 +744,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C11"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -755,13 +755,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -805,10 +805,10 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
@@ -816,7 +816,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="8"/>
     </row>
@@ -843,10 +843,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
@@ -854,10 +854,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
